--- a/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
+++ b/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Học kì 7\Đồ án chuyên ngành\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Học kì 7\Đồ án chuyên ngành\Các File báo cáo_Nhóm 17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B8265D-2E42-46F8-BD3F-E9EDFBA565BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A53B254-983F-47EA-BBCB-1E0DA13C4B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mjSDFEpKKJLt0PzKTqTdhx1Z70gZw=="/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Vũ Quang Minh</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -506,8 +509,8 @@
   </sheetPr>
   <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -734,7 +737,9 @@
       <c r="F7" s="7">
         <v>45563</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
@@ -776,7 +781,9 @@
       <c r="F8" s="7">
         <v>45563</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
       </c>
@@ -818,7 +825,9 @@
       <c r="F9" s="7">
         <v>45563</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" s="8" t="s">
         <v>29</v>
       </c>
@@ -860,8 +869,12 @@
       <c r="F10" s="9">
         <v>45565</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -888,19 +901,23 @@
         <v>19</v>
       </c>
       <c r="C11" s="9">
-        <v>45564</v>
+        <v>45566</v>
       </c>
       <c r="D11" s="9">
-        <v>45564</v>
+        <v>45566</v>
       </c>
       <c r="E11" s="9">
-        <v>45565</v>
+        <v>45569</v>
       </c>
       <c r="F11" s="9">
-        <v>45565</v>
+        <v>45570</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -927,19 +944,23 @@
         <v>20</v>
       </c>
       <c r="C12" s="9">
-        <v>45566</v>
+        <v>45572</v>
       </c>
       <c r="D12" s="9">
-        <v>45566</v>
+        <v>45572</v>
       </c>
       <c r="E12" s="9">
-        <v>45572</v>
+        <v>45577</v>
       </c>
       <c r="F12" s="9">
-        <v>45572</v>
+        <v>45578</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -966,19 +987,23 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>45573</v>
+        <v>45579</v>
       </c>
       <c r="D13" s="9">
-        <v>45573</v>
+        <v>45579</v>
       </c>
       <c r="E13" s="9">
-        <v>45579</v>
+        <v>45581</v>
       </c>
       <c r="F13" s="9">
-        <v>45579</v>
+        <v>45581</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1017,8 +1042,12 @@
       <c r="F14" s="9">
         <v>45586</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1057,9 +1086,11 @@
       <c r="F15" s="9">
         <v>45587</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="H15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -1099,8 +1130,12 @@
       <c r="F16" s="10">
         <v>45592</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>

--- a/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
+++ b/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Học kì 7\Đồ án chuyên ngành\Các File báo cáo_Nhóm 17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A53B254-983F-47EA-BBCB-1E0DA13C4B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1031C39F-8089-4077-BB25-A4D032C1A6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1174,8 +1174,12 @@
       <c r="F17" s="10">
         <v>45600</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>

--- a/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
+++ b/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Học kì 7\Đồ án chuyên ngành\Các File báo cáo_Nhóm 17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1031C39F-8089-4077-BB25-A4D032C1A6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFDBB4E-5A9D-40FB-8E31-1B8E71107290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1218,8 +1218,12 @@
       <c r="F18" s="10">
         <v>45614</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>

--- a/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
+++ b/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Học kì 7\Đồ án chuyên ngành\Các File báo cáo_Nhóm 17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFDBB4E-5A9D-40FB-8E31-1B8E71107290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C65868-4B84-4550-8F04-B12EAC506973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1262,8 +1262,12 @@
       <c r="F19" s="10">
         <v>45626</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="I19" s="12"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>

--- a/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
+++ b/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Học kì 7\Đồ án chuyên ngành\Các File báo cáo_Nhóm 17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C65868-4B84-4550-8F04-B12EAC506973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FC0F7-20CF-4953-AD5A-E57E45CA1D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Kế hoạch làm việc nhóm</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Tổng hợp và viết báo cáo chương II</t>
   </si>
   <si>
-    <t>Tổng hợp và viết báo cáo chương 3</t>
-  </si>
-  <si>
     <t>Ngày bắt đầu - Start time : 11/09/2024</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Xây dựng giao diện Frontend</t>
   </si>
   <si>
-    <t>Tiến hành kiểm thử dứng dụng</t>
-  </si>
-  <si>
     <t>Nhóm: 17</t>
   </si>
   <si>
@@ -124,6 +118,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại tất cả các chức năng</t>
+  </si>
+  <si>
+    <t>Tổng hợp và hoàn thiện báo cáo</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,8 @@
   </sheetPr>
   <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -614,7 +614,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -738,7 +738,7 @@
         <v>45563</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>11</v>
@@ -782,7 +782,7 @@
         <v>45563</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
@@ -826,10 +826,10 @@
         <v>45563</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -855,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9">
         <v>45564</v>
@@ -870,7 +870,7 @@
         <v>45565</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>11</v>
@@ -898,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="9">
         <v>45566</v>
@@ -913,7 +913,7 @@
         <v>45570</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>11</v>
@@ -941,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9">
         <v>45572</v>
@@ -956,7 +956,7 @@
         <v>45578</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>11</v>
@@ -984,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="9">
         <v>45579</v>
@@ -999,7 +999,7 @@
         <v>45581</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>11</v>
@@ -1028,7 +1028,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9">
         <v>45579</v>
@@ -1043,7 +1043,7 @@
         <v>45586</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>11</v>
@@ -1087,10 +1087,10 @@
         <v>45587</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -1116,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9">
         <v>45588</v>
@@ -1131,10 +1131,10 @@
         <v>45592</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="1"/>
@@ -1160,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="10">
         <v>45592</v>
@@ -1175,10 +1175,10 @@
         <v>45600</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="1"/>
@@ -1204,7 +1204,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="10">
         <v>45600</v>
@@ -1219,10 +1219,10 @@
         <v>45614</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="1"/>
@@ -1248,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="10">
         <v>45614</v>
@@ -1263,10 +1263,10 @@
         <v>45626</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="1"/>
@@ -1292,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20" s="10">
         <v>45626</v>
@@ -1301,13 +1301,17 @@
         <v>45626</v>
       </c>
       <c r="E20" s="10">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="F20" s="10">
-        <v>45641</v>
+        <v>45639</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1332,23 +1336,25 @@
         <v>15</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C21" s="10">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="D21" s="10">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="E21" s="10">
-        <v>45643</v>
+        <v>45640</v>
       </c>
       <c r="F21" s="10">
-        <v>45643</v>
+        <v>45640</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="H21" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>

--- a/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
+++ b/FILEBAOCAO/Ke hoach-lam-viec-nhom_17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Học kì 7\Đồ án chuyên ngành\Các File báo cáo_Nhóm 17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FC0F7-20CF-4953-AD5A-E57E45CA1D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2358A70F-3225-49EB-AE41-645DDFAE4870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,8 +509,8 @@
   </sheetPr>
   <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1301,10 +1301,10 @@
         <v>45626</v>
       </c>
       <c r="E20" s="10">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="F20" s="10">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>30</v>
